--- a/Task2/Results/GroupByPropertyID/VV.xlsx
+++ b/Task2/Results/GroupByPropertyID/VV.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>746</v>
+        <v>672</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>1046</v>
+        <v>928</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -611,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H4">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>2028</v>
+        <v>1821</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>2134</v>
+        <v>1920</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H6">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>2262</v>
+        <v>2032</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37500</v>
+        <v>7500</v>
       </c>
       <c r="H7">
-        <v>37500</v>
+        <v>7500</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>2548</v>
+        <v>2289</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -763,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H8">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>2774</v>
+        <v>2496</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -801,13 +801,13 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2613.24</v>
+        <v>186.66</v>
       </c>
       <c r="H9">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I9">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>2775</v>
+        <v>2497</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2613.24</v>
+        <v>186.66</v>
       </c>
       <c r="H10">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I10">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>3117</v>
+        <v>2795</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -877,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H11">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>3525</v>
+        <v>3145</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>5859</v>
+        <v>5239</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -953,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="H13">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>5946</v>
+        <v>5324</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -991,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>122926.44</v>
+        <v>8780.459999999999</v>
       </c>
       <c r="H14">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="I14">
         <v>82</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>5947</v>
+        <v>5325</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1029,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>122926.44</v>
+        <v>8780.459999999999</v>
       </c>
       <c r="H15">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="I15">
         <v>82</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>6184</v>
+        <v>5538</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1067,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="H16">
-        <v>61463.22</v>
+        <v>4390.23</v>
       </c>
       <c r="I16">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>7765</v>
+        <v>6958</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1105,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H17">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>7853</v>
+        <v>7036</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="H18">
-        <v>1306.62</v>
+        <v>93.33</v>
       </c>
       <c r="I18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>8000</v>
+        <v>7168</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>8173</v>
+        <v>7328</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
